--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1595310.647029667</v>
+        <v>-1560386.574824673</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025491</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484449</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10749198.41863872</v>
+        <v>10764820.26440317</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91.99661126944417</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>314.5569562449128</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>315.3535549221802</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>9.885673074334923</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>231.6283553771967</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -880,10 +880,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>200.8471285231649</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>38.93543498755539</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -911,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1060,16 +1060,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>68.77642494757393</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>216.2017488798277</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>221.3053114256417</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1142,13 +1142,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1196,10 +1196,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>74.85450227885472</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>79.5854046174441</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>152.355512532834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800588</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932879</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>181.0532071862891</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561534</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1531,7 +1531,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>3.423392126088632</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>155.2022955251541</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800588</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932879</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629689</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791314843</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561534</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>75.86622810092533</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>209.9324537163736</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800588</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932879</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629689</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791314843</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800145</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561534</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>73.01514676193455</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800588</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932894</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791314843</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800145</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561534</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2366,19 +2366,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800145</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561534</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.8069000430791</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>142.4359347523201</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2722,16 +2722,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>63.51633119327845</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>26.41040541581631</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E34" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432402</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742935395</v>
+        <v>4.96793274293444</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C37" t="n">
         <v>154.6003840628599</v>
@@ -3433,16 +3433,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3676,7 +3676,7 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277813</v>
       </c>
       <c r="I40" t="n">
         <v>71.53763939432405</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
@@ -3907,16 +3907,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934945</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>405.8008644413108</v>
       </c>
       <c r="C44" t="n">
         <v>417.5253377496635</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>780.2596421016258</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C2" t="n">
-        <v>780.2596421016258</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>351.6779678388941</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>351.6779678388941</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4334,46 +4334,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.102365436318</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O2" t="n">
-        <v>1697.183430080417</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>352.4826129674469</v>
       </c>
       <c r="Y2" t="n">
-        <v>873.1855120707613</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="3">
@@ -4386,43 +4386,43 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
         <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M3" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="N3" t="n">
+        <v>319.8519551513677</v>
+      </c>
+      <c r="O3" t="n">
         <v>739.9048540962709</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>610.9310248097249</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="C4" t="n">
-        <v>438.3693132929499</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D4" t="n">
-        <v>272.4913204944726</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E4" t="n">
-        <v>272.4913204944726</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
-        <v>272.4913204944726</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1463.215394345875</v>
       </c>
       <c r="U4" t="n">
-        <v>1397.332608038895</v>
+        <v>1184.78239359898</v>
       </c>
       <c r="V4" t="n">
-        <v>1110.377099909325</v>
+        <v>897.8268854694109</v>
       </c>
       <c r="W4" t="n">
-        <v>838.3506954956167</v>
+        <v>625.8004810557024</v>
       </c>
       <c r="X4" t="n">
-        <v>838.3506954956167</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="Y4" t="n">
-        <v>610.9310248097249</v>
+        <v>380.4087263891149</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>978.6562886337279</v>
       </c>
       <c r="C5" t="n">
-        <v>822.1393557439876</v>
+        <v>540.5138158171512</v>
       </c>
       <c r="D5" t="n">
-        <v>790.2699749588362</v>
+        <v>508.6444350319998</v>
       </c>
       <c r="E5" t="n">
-        <v>750.9412527491843</v>
+        <v>478.910094230699</v>
       </c>
       <c r="F5" t="n">
-        <v>323.0738231583921</v>
+        <v>51.04266463990679</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>51.04266463990679</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.04266463990679</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>562.65049978128</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1189.145706210984</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1815.640912640688</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599283</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.29376335234</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2447.641889536177</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2227.574662409215</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1968.352359726232</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1605.735409660059</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1200.879955071092</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1185.777895690807</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1181.532176030864</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583396</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.3411590949819</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415352</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684889</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846505</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083433</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>429.4587135897364</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.587300558882</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381028</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>542.1413766661235</v>
+        <v>624.1279908671522</v>
       </c>
       <c r="C7" t="n">
-        <v>369.5796651493484</v>
+        <v>451.5662793503772</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7016723508711</v>
+        <v>285.6882865518999</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>285.6882865518999</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>285.6882865518999</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.0970115777275</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>275.9722931853656</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>694.1821749533267</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>1153.66604213424</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1595.924845291884</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2015.594094517666</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2363.100988488007</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.29376335234</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.29376335234</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2372.052394650336</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2126.172948228791</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1847.739947481897</v>
       </c>
       <c r="V7" t="n">
-        <v>1478.797825151298</v>
+        <v>1560.784439352327</v>
       </c>
       <c r="W7" t="n">
-        <v>1206.77142073759</v>
+        <v>1288.758034938619</v>
       </c>
       <c r="X7" t="n">
-        <v>961.3796660710025</v>
+        <v>1043.366280272031</v>
       </c>
       <c r="Y7" t="n">
-        <v>733.9599953851107</v>
+        <v>815.9466095861394</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1456.941072251152</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1233.400353639393</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1201.530972854241</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1075.344177331261</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>670.4887227422939</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>251.3462593216046</v>
+        <v>1887.486362396002</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>1883.24064273606</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>488.5262235414597</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>318.768219792197</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>433.2298803720686</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>187.8381257054811</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.94366860160834</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1424.09412142215</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>985.9516486055736</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>985.9516486055736</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>552.1769037638687</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>369.2948763029706</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2948763029706</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>80.16472174618684</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618684</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>80.16472174618684</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>914.5150137043648</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>914.5150137043648</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M11" t="n">
-        <v>914.5150137043648</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>1653.247759947044</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2633.427426517351</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3461.737301350747</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4008.236087309342</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309342</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3924.584213493179</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3704.516986366218</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3445.294683683234</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3082.677733617061</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2677.822279028094</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2258.679815607405</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1850.393691907058</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374797</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.8800055741219</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206752</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476289</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637905</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299744</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618684</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066445</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7867198728568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>1085.492766498581</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>1085.492766498581</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>1085.492766498581</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>1085.492766498581</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O12" t="n">
-        <v>1085.492766498581</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991421</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380221</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172428</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1070.562933132744</v>
+        <v>790.3368563937674</v>
       </c>
       <c r="C13" t="n">
-        <v>898.0012216159686</v>
+        <v>617.7751448769924</v>
       </c>
       <c r="D13" t="n">
-        <v>732.1232288174913</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>562.3652250682285</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>385.6581710299847</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>220.0668960558123</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>80.16472174618684</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618684</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108767</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820123</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499734</v>
+        <v>881.8088617745698</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R13" t="n">
-        <v>2696.824331648987</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S13" t="n">
-        <v>2540.054336169033</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T13" t="n">
-        <v>2294.174889747488</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U13" t="n">
-        <v>2294.174889747488</v>
+        <v>2013.948813008512</v>
       </c>
       <c r="V13" t="n">
-        <v>2007.219381617919</v>
+        <v>1726.993304878942</v>
       </c>
       <c r="W13" t="n">
-        <v>1735.19297720421</v>
+        <v>1454.966900465234</v>
       </c>
       <c r="X13" t="n">
-        <v>1489.801222537623</v>
+        <v>1209.575145798646</v>
       </c>
       <c r="Y13" t="n">
-        <v>1262.381551851731</v>
+        <v>982.1554751127546</v>
       </c>
     </row>
     <row r="14">
@@ -5252,55 +5252,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771598</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>1177.320806523639</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M14" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>5113.042013538982</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538982</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
         <v>5029.390139722818</v>
@@ -5346,31 +5346,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M15" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N15" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O15" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955473</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113118</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.2207813389</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309241</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173574</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173574</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S16" t="n">
-        <v>2642.287896536276</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T16" t="n">
-        <v>2396.408450114731</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U16" t="n">
-        <v>2117.975449367836</v>
+        <v>2013.948813008512</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.975449367836</v>
+        <v>1801.895829456619</v>
       </c>
       <c r="W16" t="n">
-        <v>1845.949044954127</v>
+        <v>1529.869425042911</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5501,64 +5501,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771598</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688186</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321678</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532229</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538982</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538982</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538982</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5583,31 +5583,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707797</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707797</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651791</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
         <v>1221.073045167952</v>
@@ -5744,58 +5744,58 @@
         <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236976</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681876</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934735</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423629</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423629</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5820,31 +5820,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707797</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707797</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
         <v>881.8088617745661</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5975,64 +5975,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236976</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681876</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934735</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934735</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423629</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993935</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.389162827331</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785926</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6057,31 +6057,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707797</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
         <v>881.8088617745661</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6212,43 +6212,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
         <v>5029.390139722817</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1068.769857140658</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>896.2081456238831</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>730.3301528254058</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>560.572149076143</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6467,25 +6467,25 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423628</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
         <v>5029.390139722817</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,22 +6707,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
         <v>5029.390139722817</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6835,16 +6835,16 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886291</v>
+        <v>910.3590448886289</v>
       </c>
       <c r="D34" t="n">
-        <v>760.880759503028</v>
+        <v>760.8807595030278</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666414</v>
+        <v>607.5224631666413</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412736</v>
       </c>
       <c r="G34" t="n">
         <v>298.0235489799775</v>
@@ -6880,7 +6880,7 @@
         <v>2847.507276056459</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174707</v>
+        <v>2842.489162174706</v>
       </c>
       <c r="S34" t="n">
         <v>2699.647500885579</v>
@@ -6929,40 +6929,40 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J35" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>532.8213911287357</v>
+        <v>1133.581508556538</v>
       </c>
       <c r="L35" t="n">
-        <v>1607.881357381595</v>
+        <v>2208.641474809398</v>
       </c>
       <c r="M35" t="n">
-        <v>2764.929192592146</v>
+        <v>2208.641474809398</v>
       </c>
       <c r="N35" t="n">
-        <v>3890.660176028593</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="O35" t="n">
-        <v>4709.181119037836</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P35" t="n">
-        <v>4709.181119037836</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q35" t="n">
-        <v>4709.181119037836</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T35" t="n">
         <v>4607.41549767352</v>
@@ -6974,7 +6974,7 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
         <v>3227.177156566212</v>
@@ -7008,28 +7008,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362754</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K36" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L36" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M36" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="N36" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="O36" t="n">
-        <v>1102.894748428211</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P36" t="n">
         <v>1102.894748428211</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936681</v>
+        <v>905.6649082936673</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716793</v>
       </c>
       <c r="F37" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G37" t="n">
         <v>293.3294123850158</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J37" t="n">
         <v>200.2197420758676</v>
@@ -7120,25 +7120,25 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.47362528195</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231238</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976694</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703679</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.295274783585</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197252</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>931.9169956339958</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2006.976961886855</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2006.976961886855</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245845</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079241</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037836</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387605</v>
@@ -7211,13 +7211,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="39">
@@ -7245,22 +7245,22 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362754</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K39" t="n">
-        <v>1102.894748428211</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="L39" t="n">
-        <v>1102.894748428211</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="M39" t="n">
-        <v>1102.894748428211</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="N39" t="n">
         <v>1102.894748428211</v>
@@ -7309,25 +7309,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,13 +7348,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7363,7 +7363,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
@@ -7372,7 +7372,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703677</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
         <v>2003.64811180301</v>
@@ -7394,49 +7394,49 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581786</v>
+        <v>122.0849902121281</v>
       </c>
       <c r="K41" t="n">
-        <v>931.9169956339958</v>
+        <v>122.0849902121281</v>
       </c>
       <c r="L41" t="n">
-        <v>2006.976961886855</v>
+        <v>1197.144956464987</v>
       </c>
       <c r="M41" t="n">
-        <v>2006.976961886855</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.19279167554</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245846</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
         <v>4607.41549767352</v>
@@ -7451,10 +7451,10 @@
         <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7546,25 +7546,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080655</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716789</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463112</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882657</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7585,13 +7585,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7600,7 +7600,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231236</v>
@@ -7609,7 +7609,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
         <v>1237.245823703677</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
         <v>2003.64811180301</v>
@@ -7631,49 +7631,49 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835853</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197254</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K44" t="n">
-        <v>540.31673232073</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L44" t="n">
-        <v>1615.376698573589</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M44" t="n">
-        <v>2772.42453378414</v>
+        <v>1254.614538886369</v>
       </c>
       <c r="N44" t="n">
-        <v>3898.155517220587</v>
+        <v>2380.345522322816</v>
       </c>
       <c r="O44" t="n">
-        <v>4878.335183790893</v>
+        <v>3360.525188893122</v>
       </c>
       <c r="P44" t="n">
-        <v>4878.335183790893</v>
+        <v>4188.835063726518</v>
       </c>
       <c r="Q44" t="n">
-        <v>4878.335183790893</v>
+        <v>4735.333849685113</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
@@ -7688,10 +7688,10 @@
         <v>3629.919912574025</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
         <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
         <v>442.520979946312</v>
@@ -7801,16 +7801,16 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>491.051549882363</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856839</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7822,7 +7822,7 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
         <v>2842.813139461497</v>
@@ -7831,16 +7831,16 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
         <v>1677.257834230404</v>
@@ -7982,25 +7982,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,16 +8064,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,22 +8134,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>517.1965904184175</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,16 +8289,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>382.6594326491814</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,22 +8371,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>227.6226443619382</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,16 +8526,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>746.1946931744239</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -8942,13 +8942,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>679.5583048465041</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,10 +9000,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9164,13 +9164,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>679.558304846504</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9179,13 +9179,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,13 +9407,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.407914635246</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>404.4043982844105</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9474,16 +9474,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.407914635246</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>127.53932913075</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352456</v>
+        <v>531.8762684426488</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10115,13 +10115,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10355,13 +10355,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10586,25 +10586,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>606.8284014422247</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>826.788831322468</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10832,10 +10832,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>350.72306039261</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>901.1523322283551</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>327.873257254562</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>24.76594599627299</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>350.7230603926109</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11297,10 +11297,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>447.222251156477</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11312,13 +11312,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>144.4457920260393</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>258.8884025713062</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>109.0317990499715</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>88.8497075411629</v>
       </c>
     </row>
     <row r="3">
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>242.5355481085953</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>160.7958207444039</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307953</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2.446659489829187</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>81.78272691405797</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>74.15349933190021</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>90.92021546249606</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>141.6500182959537</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>111.4236523045829</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>141.6500182959538</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>850884.381226017</v>
+        <v>707970.2595513157</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>928707.4937931901</v>
+        <v>939400.1142371841</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>928707.4937931901</v>
+        <v>941178.9958508575</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>795884.9172633431</v>
+        <v>949680.8193286156</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>949680.8193286151</v>
+        <v>949680.8193286156</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>949680.8193286153</v>
+        <v>949680.8193286152</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>949680.8193286153</v>
+        <v>949680.8193286152</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>949680.8193286153</v>
+        <v>949680.8193286152</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>949680.8193286153</v>
+        <v>949680.8193286152</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>965241.1267149845</v>
+        <v>965241.1267149844</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36726.43201116095</v>
+        <v>30327.29223468179</v>
       </c>
       <c r="C2" t="n">
         <v>40211.04899178063</v>
@@ -26320,19 +26320,19 @@
         <v>40211.04899178063</v>
       </c>
       <c r="E2" t="n">
-        <v>33115.17903382227</v>
+        <v>39514.31881030142</v>
       </c>
       <c r="F2" t="n">
-        <v>39514.31881030142</v>
+        <v>39514.31881030141</v>
       </c>
       <c r="G2" t="n">
-        <v>39514.31881030142</v>
+        <v>39514.3188103014</v>
       </c>
       <c r="H2" t="n">
-        <v>39514.31881030142</v>
+        <v>39514.3188103014</v>
       </c>
       <c r="I2" t="n">
-        <v>39514.3188103014</v>
+        <v>39514.31881030141</v>
       </c>
       <c r="J2" t="n">
         <v>39514.31881030141</v>
@@ -26344,16 +26344,16 @@
         <v>40211.04899178068</v>
       </c>
       <c r="M2" t="n">
-        <v>40211.04899178067</v>
+        <v>40211.04899178063</v>
       </c>
       <c r="N2" t="n">
-        <v>40211.04899178069</v>
+        <v>40211.04899178068</v>
       </c>
       <c r="O2" t="n">
-        <v>40211.04899178069</v>
+        <v>40211.04899178066</v>
       </c>
       <c r="P2" t="n">
-        <v>40211.04899178066</v>
+        <v>40211.04899178064</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246215</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106428</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725244</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471843</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338203</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>21768.74196143528</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978836</v>
+        <v>137577.7007378519</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341174</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173310.0976664686</v>
+        <v>124611.1870481614</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>162797.3894436016</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>56988.33653407489</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="F4" t="n">
-        <v>68000.69828933269</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="G4" t="n">
+        <v>68000.69828933279</v>
+      </c>
+      <c r="H4" t="n">
         <v>68000.69828933277</v>
       </c>
-      <c r="H4" t="n">
-        <v>68000.69828933271</v>
-      </c>
       <c r="I4" t="n">
-        <v>68000.69828933271</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933277</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
-        <v>73343.05610596604</v>
+        <v>73343.05610596607</v>
       </c>
       <c r="M4" t="n">
         <v>81349.24995213679</v>
@@ -26457,7 +26457,7 @@
         <v>81349.2499521368</v>
       </c>
       <c r="P4" t="n">
-        <v>81349.24995213682</v>
+        <v>81349.24995213679</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295556</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710199</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-338199.7544522399</v>
+        <v>-296229.4421689819</v>
       </c>
       <c r="C6" t="n">
-        <v>-219042.5653919574</v>
+        <v>-262058.7550472387</v>
       </c>
       <c r="D6" t="n">
-        <v>-219042.5653919574</v>
+        <v>-201414.4200237151</v>
       </c>
       <c r="E6" t="n">
-        <v>-257305.7160998791</v>
+        <v>-288582.9516452564</v>
       </c>
       <c r="F6" t="n">
-        <v>-185343.5237895422</v>
+        <v>-106227.8424242066</v>
       </c>
       <c r="G6" t="n">
-        <v>-106204.6180848239</v>
+        <v>-106227.8424242066</v>
       </c>
       <c r="H6" t="n">
-        <v>-106204.6180848238</v>
+        <v>-106227.8424242065</v>
       </c>
       <c r="I6" t="n">
-        <v>-106204.6180848238</v>
+        <v>-106227.8424242065</v>
       </c>
       <c r="J6" t="n">
-        <v>-217219.083429814</v>
+        <v>-217242.3077691967</v>
       </c>
       <c r="K6" t="n">
-        <v>-106204.6180848239</v>
+        <v>-159896.1694875886</v>
       </c>
       <c r="L6" t="n">
-        <v>-125203.7339234439</v>
+        <v>-133983.9076138813</v>
       </c>
       <c r="M6" t="n">
-        <v>-246012.2370843294</v>
+        <v>-254231.5164242978</v>
       </c>
       <c r="N6" t="n">
-        <v>-184303.0159598575</v>
+        <v>-116653.8156864458</v>
       </c>
       <c r="O6" t="n">
         <v>-116653.8156864458</v>
       </c>
       <c r="P6" t="n">
-        <v>-116653.8156864459</v>
+        <v>-116653.8156864458</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
         <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="3">
@@ -26790,25 +26790,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
         <v>1278.260503384745</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179806</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977202</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072312</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574099</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179806</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977202</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702091</v>
+        <v>552.0685893398659</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574099</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179806</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977202</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072312</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574099</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>330.0399635106145</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>174.8726455171047</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>154.0496891500957</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>11.79229658013259</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>221.1894462568938</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>390.5015624057324</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>69.72672761895529</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27822,16 +27822,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>67.8842041684461</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>212.4557366627692</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27862,13 +27862,13 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27907,7 +27907,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>329.3487601844884</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -28029,7 +28029,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>72.78996144619879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-4.626503470622263e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>3.817562007254101e-12</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="38">
@@ -30417,7 +30417,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874714</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
         <v>16.23571033874737</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874788</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
   </sheetData>
@@ -34702,25 +34702,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,10 +34772,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,22 +34854,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>517.1965904184175</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>382.6594326491814</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,22 +35091,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>227.6226443619382</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>746.1946931744239</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080452</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35650,7 +35650,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>679.5583048465041</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,13 +35808,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645529</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956044</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512945</v>
@@ -35884,13 +35884,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>679.558304846504</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473919</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -36127,13 +36127,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.407914635246</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>404.4043982844105</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36282,7 +36282,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473919</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.407914635246</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>127.53932913075</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36519,7 +36519,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352456</v>
+        <v>531.8762684426488</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36835,13 +36835,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37075,13 +37075,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
         <v>480.360828703306</v>
@@ -37306,25 +37306,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>606.8284014422247</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>826.788831322468</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37470,13 +37470,13 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033059</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N37" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P37" t="n">
         <v>367.2527749552546</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -37552,10 +37552,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>350.72306039261</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>901.1523322283551</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>327.873257254562</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
         <v>186.127402120901</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>24.76594599627299</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>350.7230603926109</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37953,10 +37953,10 @@
         <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>447.222251156477</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>144.4457920260393</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38178,22 +38178,22 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
